--- a/src/predicciones/holt_winters/producto_216.xlsx
+++ b/src/predicciones/holt_winters/producto_216.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,69 +404,1983 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.303286832396095</v>
+        <v>1.817779249707269</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.295138103723753</v>
+        <v>0.9229395515204124</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
-        <v>1.231555199603893</v>
+        <v>1.144318244167624</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44936</v>
       </c>
       <c r="B5">
-        <v>2.14468526277606</v>
+        <v>1.155239390173023</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44937</v>
       </c>
       <c r="B6">
-        <v>1.167687671509856</v>
+        <v>1.13896577752551</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44938</v>
       </c>
       <c r="B7">
-        <v>1.984852386167347</v>
+        <v>1.101022979937953</v>
       </c>
       <c r="C7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B8">
+        <v>0.775087420834957</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44945</v>
+      </c>
+      <c r="B9">
+        <v>1.826454005119138</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B10">
+        <v>0.9316143069322813</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44954</v>
+      </c>
+      <c r="B11">
+        <v>1.152992999579493</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B12">
+        <v>1.163914145584892</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B13">
+        <v>1.147640532937379</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B14">
+        <v>1.109697735349822</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B15">
+        <v>0.7837621762468261</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B16">
+        <v>1.835128760531007</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B17">
+        <v>0.9402890623441504</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B18">
+        <v>1.161667754991362</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B19">
+        <v>1.172588900996761</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B20">
+        <v>1.156315288349248</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B21">
+        <v>1.118372490761691</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B22">
+        <v>0.792436931658695</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B23">
+        <v>1.843803515942876</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B24">
+        <v>0.9489638177560193</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B25">
+        <v>1.170342510403231</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B26">
+        <v>1.18126365640863</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B27">
+        <v>1.164990043761117</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B28">
+        <v>1.12704724617356</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B29">
+        <v>0.8011116870705639</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B30">
+        <v>1.852478271354745</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B31">
+        <v>0.9576385731678883</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B32">
+        <v>1.1790172658151</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B33">
+        <v>1.189938411820499</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B34">
+        <v>1.173664799172986</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B35">
+        <v>1.135722001585429</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B36">
+        <v>0.8097864424824328</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B37">
+        <v>1.861153026766614</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B38">
+        <v>0.9663133285797572</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B39">
+        <v>1.187692021226969</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B40">
+        <v>1.198613167232368</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B41">
+        <v>1.182339554584855</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B42">
+        <v>1.144396756997297</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B43">
+        <v>0.8184611978943019</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B44">
+        <v>1.869827782178483</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B45">
+        <v>0.9749880839916263</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B46">
+        <v>1.196366776638838</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B47">
+        <v>1.207287922644237</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B48">
+        <v>1.191014309996724</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B49">
+        <v>1.153071512409166</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B50">
+        <v>0.8271359533061708</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B51">
+        <v>1.878502537590351</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B52">
+        <v>0.9836628394034952</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B53">
+        <v>1.205041532050707</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B54">
+        <v>1.215962678056106</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B55">
+        <v>1.199689065408593</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B56">
+        <v>1.161746267821036</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B57">
+        <v>0.8358107087180398</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B58">
+        <v>1.887177293002221</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B59">
+        <v>0.9923375948153641</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B60">
+        <v>1.213716287462576</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B61">
+        <v>1.224637433467975</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B62">
+        <v>1.208363820820462</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B63">
+        <v>1.170421023232904</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B64">
+        <v>0.8444854641299089</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B65">
+        <v>1.895852048414089</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B66">
+        <v>1.001012350227233</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B67">
+        <v>1.222391042874445</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B68">
+        <v>1.233312188879844</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B69">
+        <v>1.217038576232331</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B70">
+        <v>1.179095778644773</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B71">
+        <v>0.8531602195417778</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B72">
+        <v>1.904526803825958</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B73">
+        <v>1.009687105639102</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B74">
+        <v>1.231065798286314</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B75">
+        <v>1.241986944291713</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B76">
+        <v>1.2257133316442</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B77">
+        <v>1.187770534056642</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B78">
+        <v>0.8618349749536467</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B79">
+        <v>1.913201559237828</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B80">
+        <v>1.018361861050971</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B81">
+        <v>1.239740553698183</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B82">
+        <v>1.250661699703582</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B83">
+        <v>1.234388087056069</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B84">
+        <v>1.196445289468511</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B85">
+        <v>0.8705097303655156</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B86">
+        <v>1.921876314649696</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B87">
+        <v>1.02703661646284</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B88">
+        <v>1.248415309110052</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B89">
+        <v>1.259336455115451</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B90">
+        <v>1.243062842467938</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B91">
+        <v>1.20512004488038</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B92">
+        <v>0.8791844857773847</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B93">
+        <v>1.930551070061565</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B94">
+        <v>1.035711371874709</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B95">
+        <v>1.257090064521921</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B96">
+        <v>1.26801121052732</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B97">
+        <v>1.251737597879807</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B98">
+        <v>1.213794800292249</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B99">
+        <v>0.8878592411892536</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B100">
+        <v>1.939225825473434</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B101">
+        <v>1.044386127286578</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B102">
+        <v>1.26576481993379</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B103">
+        <v>1.276685965939189</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B104">
+        <v>1.260412353291676</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B105">
+        <v>1.222469555704118</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B106">
+        <v>0.8965339966011225</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B107">
+        <v>1.947900580885303</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B108">
+        <v>1.053060882698447</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B109">
+        <v>1.274439575345659</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B110">
+        <v>1.285360721351058</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B111">
+        <v>1.269087108703545</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B112">
+        <v>1.231144311115987</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B113">
+        <v>0.9052087520129914</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B114">
+        <v>1.956575336297172</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B115">
+        <v>1.061735638110316</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B116">
+        <v>1.283114330757528</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B117">
+        <v>1.294035476762927</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B118">
+        <v>1.277761864115414</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B119">
+        <v>1.239819066527856</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B120">
+        <v>0.9138835074248606</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B121">
+        <v>1.965250091709041</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B122">
+        <v>1.070410393522185</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B123">
+        <v>1.291789086169397</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B124">
+        <v>1.302710232174796</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B125">
+        <v>1.286436619527282</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B126">
+        <v>1.248493821939725</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B127">
+        <v>0.9225582628367295</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B128">
+        <v>1.97392484712091</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B129">
+        <v>1.079085148934054</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B130">
+        <v>1.300463841581265</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B131">
+        <v>1.311384987586665</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B132">
+        <v>1.295111374939151</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B133">
+        <v>1.257168577351594</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B134">
+        <v>0.9312330182485984</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B135">
+        <v>1.982599602532779</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B136">
+        <v>1.087759904345923</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B137">
+        <v>1.309138596993135</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B138">
+        <v>1.320059742998533</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B139">
+        <v>1.303786130351021</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B140">
+        <v>1.265843332763463</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B141">
+        <v>0.9399077736604675</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B142">
+        <v>1.991274357944648</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B143">
+        <v>1.096434659757792</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B144">
+        <v>1.317813352405004</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B145">
+        <v>1.328734498410403</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B146">
+        <v>1.312460885762889</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B147">
+        <v>1.274518088175332</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B148">
+        <v>0.9485825290723364</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B149">
+        <v>1.999949113356517</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B150">
+        <v>1.105109415169661</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B151">
+        <v>1.326488107816872</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B152">
+        <v>1.337409253822271</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B153">
+        <v>1.321135641174758</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B154">
+        <v>1.283192843587201</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B155">
+        <v>0.9572572844842053</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B156">
+        <v>2.008623868768386</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B157">
+        <v>1.11378417058153</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B158">
+        <v>1.335162863228742</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B159">
+        <v>1.34608400923414</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B160">
+        <v>1.329810396586627</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B161">
+        <v>1.29186759899907</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B162">
+        <v>0.9659320398960745</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B163">
+        <v>2.017298624180255</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B164">
+        <v>1.122458925993399</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B165">
+        <v>1.34383761864061</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B166">
+        <v>1.354758764646009</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B167">
+        <v>1.338485151998496</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B168">
+        <v>1.300542354410939</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B169">
+        <v>0.9746067953079434</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B170">
+        <v>2.025973379592124</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B171">
+        <v>1.131133681405268</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B172">
+        <v>1.352512374052479</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B173">
+        <v>1.363433520057878</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B174">
+        <v>1.347159907410365</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B175">
+        <v>1.309217109822808</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B176">
+        <v>0.9832815507198123</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B177">
+        <v>2.034648135003993</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B178">
+        <v>1.139808436817137</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B179">
+        <v>1.361187129464348</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B180">
+        <v>1.372108275469747</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B181">
+        <v>1.355834662822234</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
